--- a/bin/mia-result/Pairwise_bilateral_sdims/Pb_4/Pb_4.xlsx
+++ b/bin/mia-result/Pairwise_bilateral_sdims/Pb_4/Pb_4.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/Pairwise_bilateral_sdims/Pb_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\MIALab_project\bin\mia-result\Pairwise_bilateral_sdims\Pb_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05CE9CB-0A12-4AD4-9DB1-960174ED59B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4C5F0-5691-4476-B898-F953F0F7C0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1425" windowWidth="26640" windowHeight="15435"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pb_4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,48 +590,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,16 +942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I21"/>
+      <selection activeCell="N11" sqref="K2:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>117122</v>
       </c>
@@ -992,8 +1003,24 @@
         <f>AVERAGE(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
         <v>0.67814088986791399</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f t="shared" ref="K2:K11" si="0">AVERAGE(C2,C12,C22,C32,C42,C52,C62,C72,C82,C92)</f>
+        <v>0.55271257698961185</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L6" si="1">_xlfn.STDEV.S(C2,C12,C22,C32,C42,C52,C62,C72,C82,C92)</f>
+        <v>5.2550071901294591E-2</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(D2,D12,D22,D32,D42,D52,D62,D72,D82,D92)</f>
+        <v>12.412949875576762</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N6" si="2">_xlfn.STDEV.S(D2,D12,D22,D32,D42,D52,D62,D72,D82,D92)</f>
+        <v>1.3410921695138585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>117122</v>
       </c>
@@ -1019,8 +1046,24 @@
         <f>_xlfn.STDEV.S(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
         <v>4.6386209306818291E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0.72548295487303271</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>8.4690458747613481E-3</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(D3,D13,D23,D33,D43,D53,D63,D73,D83,D93)</f>
+        <v>2.0921625697782753</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.15935906911667846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>117122</v>
       </c>
@@ -1046,8 +1089,24 @@
         <f>AVERAGE(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
         <v>2.9735244605059341</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.5389688345683501</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2.1900714044730114E-2</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(D4,D14,D24,D34,D44,D54,D64,D74,D84,D94)</f>
+        <v>13.052354422573458</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1.0198278871815365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>117122</v>
       </c>
@@ -1073,8 +1132,24 @@
         <f>_xlfn.STDEV.S(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
         <v>0.63083038992962592</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.74734243850424564</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>3.2515316155111731E-2</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(D5,D15,D25,D35,D45,D55,D65,D75,D85,D95)</f>
+        <v>14.745540742749878</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.1397018147559381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>117122</v>
       </c>
@@ -1100,8 +1175,24 @@
         <f>AVERAGE(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
         <v>0.61126177400076664</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.8249750427971092</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2.0145186737877872E-2</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(D6,D16,D26,D36,D46,D56,D66,D76,D86,D96)</f>
+        <v>2.7193485306737939</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.34179846030840683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1218,24 @@
         <f>_xlfn.STDEV.S(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
         <v>2.2861914988085222E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>AVERAGE(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
+        <v>0.67814088986791399</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S(C7,C17,C27,C37,C47,C57,C67,C77,C87,C97)</f>
+        <v>4.6386209306818291E-2</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
+        <v>2.9735244605059341</v>
+      </c>
+      <c r="N7">
+        <f>_xlfn.STDEV.S(D7,D17,D27,D37,D47,D57,D67,D77,D87,D97)</f>
+        <v>0.63083038992962592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1261,24 @@
         <f>AVERAGE(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
         <v>16.629775167264143</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.61126177400076664</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L11" si="3">_xlfn.STDEV.S(C8,C18,C28,C38,C48,C58,C68,C78,C88,C98)</f>
+        <v>2.2861914988085222E-2</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
+        <v>16.629775167264143</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N11" si="4">_xlfn.STDEV.S(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
+        <v>3.7044384619060251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1181,8 +1304,24 @@
         <f>_xlfn.STDEV.S(D8,D18,D28,D38,D48,D58,D68,D78,D88,D98)</f>
         <v>3.7044384619060251</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.71254250791490026</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>1.9639607546329086E-2</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(D9,D19,D29,D39,D49,D59,D69,D79,D89,D99)</f>
+        <v>3.8484910951016973</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>1.5948236722189417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1347,24 @@
         <f>AVERAGE(C9,C19,C29,C39,C49,C59,C69,C79,C89,C99)</f>
         <v>0.71254250791490026</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.82899765577286311</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>2.8431933761343054E-2</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGE(D10,D20,D30,D40,D50,D60,D70,D80,D90,D100)</f>
+        <v>3.3074992089791095</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.63284980015671211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1235,8 +1390,24 @@
         <f>_xlfn.STDEV.S(C9,C19,C29,C39,C49,C59,C69,C79,C89,C99)</f>
         <v>1.9639607546329086E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.80042190515784772</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>1.5720453022659609E-2</v>
+      </c>
+      <c r="M11">
+        <f>AVERAGE(D11,D21,D31,D41,D51,D61,D71,D81,D91,D101)</f>
+        <v>7.6704870353344079</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>1.5859202168410189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>118528</v>
       </c>
@@ -1263,7 +1434,7 @@
         <v>3.8484910951016973</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>118528</v>
       </c>
@@ -1290,7 +1461,7 @@
         <v>1.5948236722189417</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>118528</v>
       </c>
@@ -1317,7 +1488,7 @@
         <v>0.82899765577286311</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>118528</v>
       </c>
@@ -1344,7 +1515,7 @@
         <v>2.8431933761343054E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>118528</v>
       </c>
@@ -1371,7 +1542,7 @@
         <v>3.3074992089791095</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1569,7 @@
         <v>0.63284980015671211</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1596,7 @@
         <v>0.80042190515784772</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1623,7 @@
         <v>1.5720453022659609E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1650,7 @@
         <v>7.6704870353344079</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1677,7 @@
         <v>1.5859202168410189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>118730</v>
       </c>
@@ -1520,7 +1691,7 @@
         <v>11.6619037896906</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>118730</v>
       </c>
@@ -1534,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>118730</v>
       </c>
@@ -1548,7 +1719,7 @@
         <v>11.401754250991299</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>118730</v>
       </c>
@@ -1562,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>118730</v>
       </c>
@@ -1576,7 +1747,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1761,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1775,7 @@
         <v>15.6843871413581</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1789,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1803,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1817,7 @@
         <v>8.1240384046359608</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>118932</v>
       </c>
@@ -1660,7 +1831,7 @@
         <v>12.7279220613578</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>118932</v>
       </c>
@@ -1674,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>118932</v>
       </c>
@@ -1688,7 +1859,7 @@
         <v>13.379088160259601</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>118932</v>
       </c>
@@ -1702,7 +1873,7 @@
         <v>14.866068747318501</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>118932</v>
       </c>
@@ -1716,7 +1887,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1901,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1915,7 @@
         <v>10.440306508910499</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1929,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1943,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1957,7 @@
         <v>5.1961524227066302</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>120111</v>
       </c>
@@ -1800,7 +1971,7 @@
         <v>9.4868329805051292</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>120111</v>
       </c>
@@ -1814,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>120111</v>
       </c>
@@ -1828,7 +1999,7 @@
         <v>11.916375287812899</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>120111</v>
       </c>
@@ -1842,7 +2013,7 @@
         <v>15.937377450509199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>120111</v>
       </c>
@@ -1856,7 +2027,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1870,7 +2041,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +2055,7 @@
         <v>16.2480768092719</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +2069,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +2083,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +2097,7 @@
         <v>6.7082039324993596</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>122317</v>
       </c>
@@ -1940,7 +2111,7 @@
         <v>13.3416640641263</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>122317</v>
       </c>
@@ -1954,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>122317</v>
       </c>
@@ -1968,7 +2139,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>122317</v>
       </c>
@@ -1982,7 +2153,7 @@
         <v>14.0356688476181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>122317</v>
       </c>
@@ -1996,7 +2167,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +2181,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2195,7 @@
         <v>19.416487838947599</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2066,7 +2237,7 @@
         <v>8.6023252670426196</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>122620</v>
       </c>
@@ -2080,7 +2251,7 @@
         <v>13.1529464379659</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>122620</v>
       </c>
@@ -2094,7 +2265,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>122620</v>
       </c>
@@ -2108,7 +2279,7 @@
         <v>14.212670403551799</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>122620</v>
       </c>
@@ -2122,7 +2293,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>122620</v>
       </c>
@@ -2136,7 +2307,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2150,7 +2321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2335,7 @@
         <v>16.124515496597098</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2349,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2377,7 @@
         <v>7.48331477354788</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>123117</v>
       </c>
@@ -2220,7 +2391,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>123117</v>
       </c>
@@ -2234,7 +2405,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>123117</v>
       </c>
@@ -2248,7 +2419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>123117</v>
       </c>
@@ -2262,7 +2433,7 @@
         <v>16.7928556237466</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>123117</v>
       </c>
@@ -2276,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2461,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2475,7 @@
         <v>13.4164078649987</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2318,7 +2489,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2503,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2517,7 @@
         <v>6.1644140029689698</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>123925</v>
       </c>
@@ -2360,7 +2531,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>123925</v>
       </c>
@@ -2374,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>123925</v>
       </c>
@@ -2388,7 +2559,7 @@
         <v>13.4164078649987</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>123925</v>
       </c>
@@ -2402,7 +2573,7 @@
         <v>14.247806848774999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>123925</v>
       </c>
@@ -2416,7 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2615,7 @@
         <v>17.6918060129541</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -2472,7 +2643,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2657,7 @@
         <v>7.48331477354788</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>124422</v>
       </c>
@@ -2500,7 +2671,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>124422</v>
       </c>
@@ -2514,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>124422</v>
       </c>
@@ -2528,7 +2699,7 @@
         <v>11.874342087037901</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>124422</v>
       </c>
@@ -2542,7 +2713,7 @@
         <v>14.560219778561001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>124422</v>
       </c>
@@ -2556,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2741,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2755,7 @@
         <v>23.853720883753098</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +2769,7 @@
         <v>8.1853527718724504</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -2612,7 +2783,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>18</v>
       </c>
